--- a/output_analysis/START_1_SEC_6.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
+++ b/output_analysis/START_1_SEC_6.0_ENERGY_2.0_EV-FACTOR_22_EV_2_FLEX_300_TPS.txt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,285 +434,240 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Vehicle-ID</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Vehicle-ID</t>
+          <t>Trips</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Trips</t>
+          <t>Number of Trips</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Distances</t>
+          <t>Sequential Coverage</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Individual Coverages</t>
+          <t>Ride-share Coverage</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Individual Energy</t>
+          <t>Individual Coverage</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Ride-share Energy</t>
+          <t>Individual Cars</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>3 27 49 53 80 256</t>
-        </is>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1 38 101 112 132 135 294</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E2" t="n">
+        <v>96</v>
+      </c>
+      <c r="F2" t="n">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8 33 76 79 104 219</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>97</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+      <c r="F3" t="n">
+        <v>25</v>
+      </c>
+      <c r="G3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9 37 40 92</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="n">
+        <v>82</v>
+      </c>
+      <c r="E4" t="n">
+        <v>94</v>
+      </c>
+      <c r="F4" t="n">
+        <v>26</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>71 109 139 215 225 267</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
         <v>93</v>
       </c>
-      <c r="F2" t="n">
-        <v>98</v>
-      </c>
-      <c r="G2" t="n">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="E5" t="n">
+        <v>100</v>
+      </c>
+      <c r="F5" t="n">
+        <v>11</v>
+      </c>
+      <c r="G5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>128 145 158 161</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>60</v>
+      </c>
+      <c r="E6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>15</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>140 172 186 238 287</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>77</v>
+      </c>
+      <c r="E7" t="n">
+        <v>92</v>
+      </c>
+      <c r="F7" t="n">
+        <v>15</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>150 182 197 214 286</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>76</v>
+      </c>
+      <c r="E8" t="n">
+        <v>96</v>
+      </c>
+      <c r="F8" t="n">
+        <v>27</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5 54 69 70 283</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>100</v>
-      </c>
-      <c r="E3" t="n">
-        <v>87</v>
-      </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>39 52 71 130</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>98</v>
-      </c>
-      <c r="E4" t="n">
-        <v>73</v>
-      </c>
-      <c r="F4" t="n">
-        <v>98</v>
-      </c>
-      <c r="G4" t="n">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>55 67 87 100 107 145</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>94</v>
-      </c>
-      <c r="E5" t="n">
-        <v>85</v>
-      </c>
-      <c r="F5" t="n">
-        <v>94</v>
-      </c>
-      <c r="G5" t="n">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>92 103 137 146 156 159</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>100</v>
-      </c>
-      <c r="E6" t="n">
-        <v>61</v>
-      </c>
-      <c r="F6" t="n">
-        <v>100</v>
-      </c>
-      <c r="G6" t="n">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>133 150 171 202 244</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>100</v>
-      </c>
-      <c r="E7" t="n">
-        <v>70</v>
-      </c>
-      <c r="F7" t="n">
-        <v>100</v>
-      </c>
-      <c r="G7" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>6</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>148 175 185 189 229</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>94</v>
-      </c>
-      <c r="E8" t="n">
-        <v>76</v>
-      </c>
-      <c r="F8" t="n">
-        <v>94</v>
-      </c>
-      <c r="G8" t="n">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>195 227 245</t>
-        </is>
-      </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E9" t="n">
         <v>40</v>
       </c>
       <c r="F9" t="n">
-        <v>62</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>8</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>209 241 246 274</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>74</v>
-      </c>
-      <c r="E10" t="n">
-        <v>45</v>
-      </c>
-      <c r="F10" t="n">
-        <v>74</v>
-      </c>
-      <c r="G10" t="n">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>9</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>230 261</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>50</v>
-      </c>
-      <c r="E11" t="n">
-        <v>39</v>
-      </c>
-      <c r="F11" t="n">
-        <v>50</v>
-      </c>
-      <c r="G11" t="n">
-        <v>39</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
